--- a/tests/RESTData/state.xlsx
+++ b/tests/RESTData/state.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation2026\tests\RESTDDATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation2026\tests\RESTData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C29CD7D-E9F5-4531-A238-44BF50580A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1222035B-D030-4F11-B6FE-36E75EB72FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="60" windowWidth="20385" windowHeight="10740" xr2:uid="{3DD8E5D6-683F-4008-9F08-5822B7AAEF18}"/>
+    <workbookView xWindow="105" yWindow="60" windowWidth="20385" windowHeight="10740" activeTab="1" xr2:uid="{3DD8E5D6-683F-4008-9F08-5822B7AAEF18}"/>
   </bookViews>
   <sheets>
     <sheet name="restdalllob" sheetId="1" r:id="rId1"/>
+    <sheet name="NcState" sheetId="2" r:id="rId2"/>
+    <sheet name="TaxState" sheetId="3" r:id="rId3"/>
+    <sheet name="Issue state" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="256">
   <si>
     <t>RESTD</t>
   </si>
@@ -696,9 +699,6 @@
     <t>123 Wisconsin WI</t>
   </si>
   <si>
-    <t>123 Wyoming WY</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -835,6 +835,9 @@
   </si>
   <si>
     <t>123 west virginia wv usa</t>
+  </si>
+  <si>
+    <t>123 Wyoming WY usa</t>
   </si>
 </sst>
 </file>
@@ -1413,10 +1416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B415FC1-E84E-4B99-9846-0B38372A921C}">
-  <dimension ref="A1:AO49"/>
+  <dimension ref="A1:AO42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K37" workbookViewId="0">
-      <selection activeCell="W44" sqref="W44"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,7 +1570,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F2" s="20">
         <v>46029</v>
@@ -1588,7 +1591,7 @@
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
       <c r="P2" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
@@ -1622,10 +1625,10 @@
         <v>100</v>
       </c>
       <c r="AJ2" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK2" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL2" s="16"/>
       <c r="AM2" s="16"/>
@@ -1650,7 +1653,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F3" s="21">
         <v>46027</v>
@@ -1671,7 +1674,7 @@
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
       <c r="P3" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -1705,10 +1708,10 @@
         <v>100</v>
       </c>
       <c r="AJ3" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK3" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL3" s="16"/>
       <c r="AM3" s="16"/>
@@ -1752,7 +1755,7 @@
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -1786,10 +1789,10 @@
         <v>100</v>
       </c>
       <c r="AJ4" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK4" s="16" t="s">
         <v>214</v>
-      </c>
-      <c r="AK4" s="16" t="s">
-        <v>215</v>
       </c>
       <c r="AL4" s="16"/>
       <c r="AM4" s="16"/>
@@ -1867,10 +1870,10 @@
         <v>100</v>
       </c>
       <c r="AJ5" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK5" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL5" s="16"/>
       <c r="AM5" s="16"/>
@@ -1948,10 +1951,10 @@
         <v>100</v>
       </c>
       <c r="AJ6" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK6" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL6" s="16"/>
       <c r="AM6" s="16"/>
@@ -1995,7 +1998,7 @@
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
       <c r="P7" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
@@ -2029,10 +2032,10 @@
         <v>100</v>
       </c>
       <c r="AJ7" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK7" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL7" s="16"/>
       <c r="AM7" s="16"/>
@@ -2076,7 +2079,7 @@
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
       <c r="P8" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
@@ -2110,10 +2113,10 @@
         <v>100</v>
       </c>
       <c r="AJ8" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK8" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL8" s="16"/>
       <c r="AM8" s="16"/>
@@ -2191,10 +2194,10 @@
         <v>100</v>
       </c>
       <c r="AJ9" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK9" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL9" s="16"/>
       <c r="AM9" s="16"/>
@@ -2272,10 +2275,10 @@
         <v>100</v>
       </c>
       <c r="AJ10" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK10" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL10" s="16"/>
       <c r="AM10" s="16"/>
@@ -2353,10 +2356,10 @@
         <v>100</v>
       </c>
       <c r="AJ11" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK11" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL11" s="16"/>
       <c r="AM11" s="16"/>
@@ -2434,10 +2437,10 @@
         <v>100</v>
       </c>
       <c r="AJ12" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK12" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL12" s="16"/>
       <c r="AM12" s="16"/>
@@ -2515,10 +2518,10 @@
         <v>100</v>
       </c>
       <c r="AJ13" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK13" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL13" s="16"/>
       <c r="AM13" s="16"/>
@@ -2596,10 +2599,10 @@
         <v>100</v>
       </c>
       <c r="AJ14" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK14" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL14" s="16"/>
       <c r="AM14" s="16"/>
@@ -2677,10 +2680,10 @@
         <v>100</v>
       </c>
       <c r="AJ15" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK15" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL15" s="16"/>
       <c r="AM15" s="16"/>
@@ -2758,10 +2761,10 @@
         <v>100</v>
       </c>
       <c r="AJ16" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK16" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL16" s="16"/>
       <c r="AM16" s="16"/>
@@ -2805,7 +2808,7 @@
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
       <c r="P17" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
@@ -2839,10 +2842,10 @@
         <v>100</v>
       </c>
       <c r="AJ17" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK17" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL17" s="16"/>
       <c r="AM17" s="16"/>
@@ -2920,10 +2923,10 @@
         <v>100</v>
       </c>
       <c r="AJ18" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK18" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL18" s="16"/>
       <c r="AM18" s="16"/>
@@ -2967,7 +2970,7 @@
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
       <c r="P19" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
@@ -3001,10 +3004,10 @@
         <v>100</v>
       </c>
       <c r="AJ19" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK19" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL19" s="16"/>
       <c r="AM19" s="16"/>
@@ -3082,10 +3085,10 @@
         <v>100</v>
       </c>
       <c r="AJ20" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK20" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL20" s="16"/>
       <c r="AM20" s="16"/>
@@ -3157,16 +3160,16 @@
       <c r="AF21" s="14"/>
       <c r="AG21" s="14"/>
       <c r="AH21" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AI21" s="15" t="s">
         <v>100</v>
       </c>
       <c r="AJ21" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK21" s="16" t="s">
         <v>214</v>
-      </c>
-      <c r="AK21" s="16" t="s">
-        <v>215</v>
       </c>
       <c r="AL21" s="16"/>
       <c r="AM21" s="16"/>
@@ -3177,7 +3180,7 @@
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>0</v>
@@ -3188,10 +3191,10 @@
       <c r="D22" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="21">
+      <c r="E22" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="20">
         <v>46027</v>
       </c>
       <c r="G22" s="19"/>
@@ -3210,7 +3213,7 @@
       <c r="N22" s="19"/>
       <c r="O22" s="19"/>
       <c r="P22" s="19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
@@ -3238,27 +3241,27 @@
       <c r="AF22" s="14"/>
       <c r="AG22" s="14"/>
       <c r="AH22" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AI22" s="15" t="s">
         <v>100</v>
       </c>
       <c r="AJ22" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK22" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL22" s="16"/>
       <c r="AM22" s="16"/>
       <c r="AN22" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AO22" s="19"/>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>0</v>
@@ -3269,10 +3272,10 @@
       <c r="D23" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="20">
+      <c r="E23" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="21">
         <v>46027</v>
       </c>
       <c r="G23" s="19"/>
@@ -3291,7 +3294,7 @@
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
       <c r="P23" s="19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
@@ -3319,27 +3322,27 @@
       <c r="AF23" s="14"/>
       <c r="AG23" s="14"/>
       <c r="AH23" s="15" t="s">
-        <v>227</v>
+        <v>101</v>
       </c>
       <c r="AI23" s="15" t="s">
         <v>100</v>
       </c>
       <c r="AJ23" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK23" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL23" s="16"/>
       <c r="AM23" s="16"/>
       <c r="AN23" s="17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AO23" s="19"/>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>0</v>
@@ -3350,10 +3353,10 @@
       <c r="D24" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="21">
+      <c r="E24" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="20">
         <v>46027</v>
       </c>
       <c r="G24" s="19"/>
@@ -3372,7 +3375,7 @@
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
       <c r="P24" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
@@ -3400,27 +3403,27 @@
       <c r="AF24" s="14"/>
       <c r="AG24" s="14"/>
       <c r="AH24" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AI24" s="15" t="s">
         <v>100</v>
       </c>
       <c r="AJ24" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK24" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL24" s="16"/>
       <c r="AM24" s="16"/>
       <c r="AN24" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO24" s="19"/>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>0</v>
@@ -3432,7 +3435,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F25" s="20">
         <v>46027</v>
@@ -3453,7 +3456,7 @@
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
       <c r="P25" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
@@ -3483,25 +3486,25 @@
       <c r="AH25" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="AI25" s="15" t="s">
-        <v>100</v>
+      <c r="AI25" s="32" t="s">
+        <v>228</v>
       </c>
       <c r="AJ25" s="16" t="s">
         <v>213</v>
       </c>
       <c r="AK25" s="16" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="AL25" s="16"/>
       <c r="AM25" s="16"/>
       <c r="AN25" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AO25" s="19"/>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>0</v>
@@ -3512,10 +3515,10 @@
       <c r="D26" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="20">
+      <c r="E26" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="21">
         <v>46027</v>
       </c>
       <c r="G26" s="19"/>
@@ -3534,7 +3537,7 @@
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
       <c r="P26" s="19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
@@ -3562,27 +3565,27 @@
       <c r="AF26" s="14"/>
       <c r="AG26" s="14"/>
       <c r="AH26" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI26" s="32" t="s">
-        <v>229</v>
+        <v>101</v>
+      </c>
+      <c r="AI26" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="AJ26" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK26" s="16" t="s">
         <v>214</v>
-      </c>
-      <c r="AK26" s="16" t="s">
-        <v>228</v>
       </c>
       <c r="AL26" s="16"/>
       <c r="AM26" s="16"/>
       <c r="AN26" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AO26" s="19"/>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>0</v>
@@ -3593,10 +3596,10 @@
       <c r="D27" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="21">
+      <c r="E27" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="20">
         <v>46027</v>
       </c>
       <c r="G27" s="19"/>
@@ -3615,7 +3618,7 @@
       <c r="N27" s="19"/>
       <c r="O27" s="19"/>
       <c r="P27" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
@@ -3643,27 +3646,27 @@
       <c r="AF27" s="14"/>
       <c r="AG27" s="14"/>
       <c r="AH27" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AI27" s="15" t="s">
         <v>100</v>
       </c>
       <c r="AJ27" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK27" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL27" s="16"/>
       <c r="AM27" s="16"/>
       <c r="AN27" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AO27" s="19"/>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>0</v>
@@ -3674,10 +3677,10 @@
       <c r="D28" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="20">
+      <c r="E28" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="21">
         <v>46027</v>
       </c>
       <c r="G28" s="19"/>
@@ -3696,7 +3699,7 @@
       <c r="N28" s="19"/>
       <c r="O28" s="19"/>
       <c r="P28" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
@@ -3730,21 +3733,21 @@
         <v>100</v>
       </c>
       <c r="AJ28" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK28" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL28" s="16"/>
       <c r="AM28" s="16"/>
       <c r="AN28" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO28" s="19"/>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>0</v>
@@ -3755,10 +3758,10 @@
       <c r="D29" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="21">
+      <c r="E29" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="20">
         <v>46027</v>
       </c>
       <c r="G29" s="19"/>
@@ -3777,7 +3780,7 @@
       <c r="N29" s="19"/>
       <c r="O29" s="19"/>
       <c r="P29" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
@@ -3811,21 +3814,21 @@
         <v>100</v>
       </c>
       <c r="AJ29" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK29" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL29" s="16"/>
       <c r="AM29" s="16"/>
       <c r="AN29" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO29" s="19"/>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>0</v>
@@ -3836,10 +3839,10 @@
       <c r="D30" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="20">
+      <c r="E30" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="21">
         <v>46027</v>
       </c>
       <c r="G30" s="19"/>
@@ -3858,7 +3861,7 @@
       <c r="N30" s="19"/>
       <c r="O30" s="19"/>
       <c r="P30" s="19" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
@@ -3886,27 +3889,27 @@
       <c r="AF30" s="14"/>
       <c r="AG30" s="14"/>
       <c r="AH30" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AI30" s="15" t="s">
         <v>100</v>
       </c>
       <c r="AJ30" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK30" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL30" s="16"/>
       <c r="AM30" s="16"/>
       <c r="AN30" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO30" s="19"/>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>0</v>
@@ -3917,10 +3920,10 @@
       <c r="D31" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="21">
+      <c r="E31" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="20">
         <v>46027</v>
       </c>
       <c r="G31" s="19"/>
@@ -3939,7 +3942,7 @@
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
       <c r="P31" s="19" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
@@ -3967,27 +3970,27 @@
       <c r="AF31" s="14"/>
       <c r="AG31" s="14"/>
       <c r="AH31" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AI31" s="15" t="s">
         <v>100</v>
       </c>
       <c r="AJ31" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK31" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL31" s="16"/>
       <c r="AM31" s="16"/>
       <c r="AN31" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AO31" s="19"/>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>0</v>
@@ -3998,10 +4001,10 @@
       <c r="D32" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="20">
+      <c r="E32" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="21">
         <v>46027</v>
       </c>
       <c r="G32" s="19"/>
@@ -4020,7 +4023,7 @@
       <c r="N32" s="19"/>
       <c r="O32" s="19"/>
       <c r="P32" s="19" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
@@ -4054,21 +4057,21 @@
         <v>100</v>
       </c>
       <c r="AJ32" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK32" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL32" s="16"/>
       <c r="AM32" s="16"/>
       <c r="AN32" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO32" s="19"/>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>0</v>
@@ -4079,10 +4082,10 @@
       <c r="D33" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" s="21">
+      <c r="E33" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="20">
         <v>46027</v>
       </c>
       <c r="G33" s="19"/>
@@ -4101,7 +4104,7 @@
       <c r="N33" s="19"/>
       <c r="O33" s="19"/>
       <c r="P33" s="19" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
@@ -4135,21 +4138,21 @@
         <v>100</v>
       </c>
       <c r="AJ33" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK33" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL33" s="16"/>
       <c r="AM33" s="16"/>
       <c r="AN33" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AO33" s="19"/>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>0</v>
@@ -4160,10 +4163,10 @@
       <c r="D34" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="F34" s="20">
+      <c r="E34" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="21">
         <v>46027</v>
       </c>
       <c r="G34" s="19"/>
@@ -4182,7 +4185,7 @@
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
@@ -4210,27 +4213,27 @@
       <c r="AF34" s="14"/>
       <c r="AG34" s="14"/>
       <c r="AH34" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AI34" s="15" t="s">
         <v>100</v>
       </c>
       <c r="AJ34" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK34" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL34" s="16"/>
       <c r="AM34" s="16"/>
       <c r="AN34" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AO34" s="19"/>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>0</v>
@@ -4241,10 +4244,10 @@
       <c r="D35" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" s="21">
+      <c r="E35" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="20">
         <v>46027</v>
       </c>
       <c r="G35" s="19"/>
@@ -4263,7 +4266,7 @@
       <c r="N35" s="19"/>
       <c r="O35" s="19"/>
       <c r="P35" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
@@ -4291,27 +4294,27 @@
       <c r="AF35" s="14"/>
       <c r="AG35" s="14"/>
       <c r="AH35" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AI35" s="15" t="s">
         <v>100</v>
       </c>
       <c r="AJ35" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK35" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL35" s="16"/>
       <c r="AM35" s="16"/>
       <c r="AN35" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AO35" s="19"/>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>0</v>
@@ -4322,10 +4325,10 @@
       <c r="D36" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="20">
+      <c r="E36" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="21">
         <v>46027</v>
       </c>
       <c r="G36" s="19"/>
@@ -4344,7 +4347,7 @@
       <c r="N36" s="19"/>
       <c r="O36" s="19"/>
       <c r="P36" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
@@ -4378,21 +4381,21 @@
         <v>100</v>
       </c>
       <c r="AJ36" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK36" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL36" s="16"/>
       <c r="AM36" s="16"/>
       <c r="AN36" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AO36" s="19"/>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>0</v>
@@ -4403,10 +4406,10 @@
       <c r="D37" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="21">
+      <c r="E37" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F37" s="20">
         <v>46027</v>
       </c>
       <c r="G37" s="19"/>
@@ -4425,7 +4428,7 @@
       <c r="N37" s="19"/>
       <c r="O37" s="19"/>
       <c r="P37" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
@@ -4459,21 +4462,21 @@
         <v>100</v>
       </c>
       <c r="AJ37" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK37" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL37" s="16"/>
       <c r="AM37" s="16"/>
       <c r="AN37" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AO37" s="19"/>
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>0</v>
@@ -4484,10 +4487,10 @@
       <c r="D38" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="F38" s="20">
+      <c r="E38" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="21">
         <v>46027</v>
       </c>
       <c r="G38" s="19"/>
@@ -4506,7 +4509,7 @@
       <c r="N38" s="19"/>
       <c r="O38" s="19"/>
       <c r="P38" s="19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
@@ -4534,27 +4537,27 @@
       <c r="AF38" s="14"/>
       <c r="AG38" s="14"/>
       <c r="AH38" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AI38" s="15" t="s">
         <v>100</v>
       </c>
       <c r="AJ38" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK38" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL38" s="16"/>
       <c r="AM38" s="16"/>
       <c r="AN38" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AO38" s="19"/>
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>0</v>
@@ -4565,10 +4568,10 @@
       <c r="D39" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F39" s="21">
+      <c r="E39" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="20">
         <v>46027</v>
       </c>
       <c r="G39" s="19"/>
@@ -4587,7 +4590,7 @@
       <c r="N39" s="19"/>
       <c r="O39" s="19"/>
       <c r="P39" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
@@ -4615,27 +4618,27 @@
       <c r="AF39" s="14"/>
       <c r="AG39" s="14"/>
       <c r="AH39" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AI39" s="15" t="s">
         <v>100</v>
       </c>
       <c r="AJ39" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK39" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL39" s="16"/>
       <c r="AM39" s="16"/>
       <c r="AN39" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AO39" s="19"/>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B40" s="18" t="s">
         <v>0</v>
@@ -4646,10 +4649,10 @@
       <c r="D40" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" s="20">
+      <c r="E40" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="21">
         <v>46027</v>
       </c>
       <c r="G40" s="19"/>
@@ -4668,7 +4671,7 @@
       <c r="N40" s="19"/>
       <c r="O40" s="19"/>
       <c r="P40" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
@@ -4702,21 +4705,21 @@
         <v>100</v>
       </c>
       <c r="AJ40" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK40" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL40" s="16"/>
       <c r="AM40" s="16"/>
       <c r="AN40" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AO40" s="19"/>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41" s="18" t="s">
         <v>0</v>
@@ -4727,10 +4730,10 @@
       <c r="D41" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F41" s="21">
+      <c r="E41" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" s="20">
         <v>46027</v>
       </c>
       <c r="G41" s="19"/>
@@ -4749,7 +4752,7 @@
       <c r="N41" s="19"/>
       <c r="O41" s="19"/>
       <c r="P41" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
@@ -4783,21 +4786,21 @@
         <v>100</v>
       </c>
       <c r="AJ41" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK41" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL41" s="16"/>
       <c r="AM41" s="16"/>
       <c r="AN41" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AO41" s="19"/>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
-        <v>80</v>
+      <c r="A42" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>0</v>
@@ -4808,10 +4811,10 @@
       <c r="D42" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="F42" s="20">
+      <c r="E42" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" s="21">
         <v>46027</v>
       </c>
       <c r="G42" s="19"/>
@@ -4830,18 +4833,18 @@
       <c r="N42" s="19"/>
       <c r="O42" s="19"/>
       <c r="P42" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
+        <v>255</v>
+      </c>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="30"/>
+      <c r="U42" s="30"/>
+      <c r="V42" s="30"/>
       <c r="W42" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="X42" s="11"/>
+        <v>209</v>
+      </c>
+      <c r="X42" s="12"/>
       <c r="Y42" s="12" t="s">
         <v>96</v>
       </c>
@@ -4850,605 +4853,1030 @@
       <c r="AB42" s="12"/>
       <c r="AC42" s="12"/>
       <c r="AD42" s="13" t="s">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c r="AE42" s="13" t="s">
-        <v>98</v>
+        <v>211</v>
       </c>
       <c r="AF42" s="14"/>
       <c r="AG42" s="14"/>
       <c r="AH42" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AI42" s="15" t="s">
         <v>100</v>
       </c>
       <c r="AJ42" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK42" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="AL42" s="16"/>
-      <c r="AM42" s="16"/>
+        <v>214</v>
+      </c>
+      <c r="AL42" s="31"/>
+      <c r="AM42" s="31"/>
       <c r="AN42" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="AO42" s="19"/>
-    </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F43" s="21">
-        <v>46027</v>
-      </c>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K43" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="30"/>
-      <c r="W43" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="X43" s="12"/>
-      <c r="Y43" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z43" s="12"/>
-      <c r="AA43" s="12"/>
-      <c r="AB43" s="12"/>
-      <c r="AC43" s="12"/>
-      <c r="AD43" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE43" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="AF43" s="14"/>
-      <c r="AG43" s="14"/>
-      <c r="AH43" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI43" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="AJ43" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK43" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="AL43" s="31"/>
-      <c r="AM43" s="31"/>
-      <c r="AN43" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="AO43" s="19">
+      <c r="AO42" s="19">
         <v>508</v>
       </c>
-    </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="20">
-        <v>46027</v>
-      </c>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K44" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="X44" s="11"/>
-      <c r="Y44" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z44" s="12"/>
-      <c r="AA44" s="12"/>
-      <c r="AB44" s="12"/>
-      <c r="AC44" s="12"/>
-      <c r="AD44" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE44" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF44" s="14"/>
-      <c r="AG44" s="14"/>
-      <c r="AH44" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI44" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="AJ44" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK44" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="AL44" s="16"/>
-      <c r="AM44" s="31"/>
-      <c r="AN44" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AO44" s="19"/>
-    </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="F45" s="20">
-        <v>46028</v>
-      </c>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K45" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="X45" s="11"/>
-      <c r="Y45" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z45" s="12"/>
-      <c r="AA45" s="12"/>
-      <c r="AB45" s="12"/>
-      <c r="AC45" s="12"/>
-      <c r="AD45" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE45" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="AF45" s="14"/>
-      <c r="AG45" s="14"/>
-      <c r="AH45" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI45" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="AJ45" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK45" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="AL45" s="16"/>
-      <c r="AM45" s="31"/>
-      <c r="AN45" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO45" s="19"/>
-    </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="F46" s="20">
-        <v>46029</v>
-      </c>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="X46" s="11"/>
-      <c r="Y46" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z46" s="12"/>
-      <c r="AA46" s="12"/>
-      <c r="AB46" s="12"/>
-      <c r="AC46" s="12"/>
-      <c r="AD46" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="AE46" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="AF46" s="14"/>
-      <c r="AG46" s="14"/>
-      <c r="AH46" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI46" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="AJ46" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK46" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="AL46" s="16"/>
-      <c r="AM46" s="31"/>
-      <c r="AN46" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO46" s="19"/>
-    </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="F47" s="20">
-        <v>46030</v>
-      </c>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K47" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="7"/>
-      <c r="V47" s="7"/>
-      <c r="W47" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="X47" s="11"/>
-      <c r="Y47" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z47" s="12"/>
-      <c r="AA47" s="12"/>
-      <c r="AB47" s="12"/>
-      <c r="AC47" s="12"/>
-      <c r="AD47" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="AE47" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="AF47" s="14"/>
-      <c r="AG47" s="14"/>
-      <c r="AH47" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI47" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="AJ47" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK47" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="AL47" s="16"/>
-      <c r="AM47" s="31"/>
-      <c r="AN47" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="AO47" s="19"/>
-    </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="F48" s="20">
-        <v>46031</v>
-      </c>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K48" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="7"/>
-      <c r="V48" s="7"/>
-      <c r="W48" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="X48" s="11"/>
-      <c r="Y48" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z48" s="12"/>
-      <c r="AA48" s="12"/>
-      <c r="AB48" s="12"/>
-      <c r="AC48" s="12"/>
-      <c r="AD48" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="AE48" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="AF48" s="14"/>
-      <c r="AG48" s="14"/>
-      <c r="AH48" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI48" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="AJ48" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK48" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="AL48" s="16"/>
-      <c r="AM48" s="31"/>
-      <c r="AN48" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="AO48" s="19"/>
-    </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="F49" s="20">
-        <v>46032</v>
-      </c>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K49" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="7"/>
-      <c r="V49" s="7"/>
-      <c r="W49" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="X49" s="11"/>
-      <c r="Y49" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z49" s="12"/>
-      <c r="AA49" s="12"/>
-      <c r="AB49" s="12"/>
-      <c r="AC49" s="12"/>
-      <c r="AD49" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="AE49" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="AF49" s="14"/>
-      <c r="AG49" s="14"/>
-      <c r="AH49" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI49" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="AJ49" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK49" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="AL49" s="16"/>
-      <c r="AM49" s="31"/>
-      <c r="AN49" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO49" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC52388-B93D-4BFA-9200-C21C76EBC2E9}">
+  <dimension ref="A1:AO2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN1" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO1" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="21">
+        <v>46027</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="AI2" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ2" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK2" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO2" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0E06DA-A277-4D48-B06A-B7FEA4873ABC}">
+  <dimension ref="A1:AO6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN1" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO1" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" s="20">
+        <v>46028</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI2" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ2" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK2" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO2" s="19"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" s="20">
+        <v>46029</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI3" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ3" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK3" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO3" s="19"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="20">
+        <v>46030</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE4" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI4" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ4" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK4" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO4" s="19"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="20">
+        <v>46031</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE5" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI5" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ5" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK5" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="31"/>
+      <c r="AN5" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO5" s="19"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="F6" s="20">
+        <v>46032</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE6" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ6" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK6" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="31"/>
+      <c r="AN6" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO6" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842EB074-63FA-470A-823E-F521208A6121}">
+  <dimension ref="A1:AO2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN1" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO1" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="20">
+        <v>46027</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI2" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ2" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK2" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO2" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
